--- a/sstool-poi-expand/src/main/resources/xlsx/foreach_temp.xlsx
+++ b/sstool-poi-expand/src/main/resources/xlsx/foreach_temp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\gitcheck\github\common-modules\common-npoi\src\main\resources\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\gitcheck\github\sstool\sstool-poi-expand\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0418377-FB7B-44D4-AC7B-E3D880B51C30}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D2B2A6-9A12-4E19-8F20-83581C3BE7B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,20 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>生成日期${printDate}</t>
   </si>
@@ -106,6 +114,18 @@
   </si>
   <si>
     <t>#foreach detail in ${list}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>formula=SUM(B10:B12)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义公式</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定公式</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -600,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -706,6 +726,23 @@
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <f>SUM(B10:B11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
